--- a/public/uploads/excel/ventas_productos_embajador2019-08-12.xlsx
+++ b/public/uploads/excel/ventas_productos_embajador2019-08-12.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t xml:space="preserve">Id_Orden </t>
   </si>
@@ -90,6 +90,57 @@
   </si>
   <si>
     <t xml:space="preserve">OBSERVACIONES </t>
+  </si>
+  <si>
+    <t>felisa cohen</t>
+  </si>
+  <si>
+    <t>Super Leche Actilife Alpina X4</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>15/07/2019</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>CR 13A # 102 - 56 altos de aragon apto 601</t>
+  </si>
+  <si>
+    <t>rincon del chico</t>
+  </si>
+  <si>
+    <t>Queso Mozarella Alpina 25 Tajadas</t>
+  </si>
+  <si>
+    <t>Queso Sabana Alpina 25 Tajadas</t>
+  </si>
+  <si>
+    <t>Néctar Frutto Durazno</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>Quesito Alpina</t>
+  </si>
+  <si>
+    <t>Yogurt Griego Alpina Natural x 4</t>
+  </si>
+  <si>
+    <t>Leche Entera Alpina</t>
+  </si>
+  <si>
+    <t>Mermelada Alpina Fresa Vidrio</t>
+  </si>
+  <si>
+    <t>Arequipe Alpina</t>
+  </si>
+  <si>
+    <t>Cremosino para untar</t>
   </si>
 </sst>
 </file>
@@ -428,7 +479,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +562,686 @@
       </c>
       <c r="Y1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2">
+        <v>838</v>
+      </c>
+      <c r="C2">
+        <v>1020716254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>4238600</v>
+      </c>
+      <c r="F2">
+        <v>7702001115402</v>
+      </c>
+      <c r="G2">
+        <v>11540</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>22300</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>44600</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2">
+        <v>127453</v>
+      </c>
+      <c r="V2">
+        <v>107103.36</v>
+      </c>
+      <c r="W2">
+        <v>0.19</v>
+      </c>
+      <c r="X2">
+        <v>20349.64</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3">
+        <v>838</v>
+      </c>
+      <c r="C3">
+        <v>1020716254</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>4238600</v>
+      </c>
+      <c r="F3">
+        <v>7702001121762</v>
+      </c>
+      <c r="G3">
+        <v>12176</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>11261</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>11261</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>127453</v>
+      </c>
+      <c r="V3">
+        <v>107103.36</v>
+      </c>
+      <c r="W3">
+        <v>0.19</v>
+      </c>
+      <c r="X3">
+        <v>20349.64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4">
+        <v>838</v>
+      </c>
+      <c r="C4">
+        <v>1020716254</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>4238600</v>
+      </c>
+      <c r="F4">
+        <v>7702001121748</v>
+      </c>
+      <c r="G4">
+        <v>12174</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>14720</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>14720</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4">
+        <v>127453</v>
+      </c>
+      <c r="V4">
+        <v>107103.36</v>
+      </c>
+      <c r="W4">
+        <v>0.19</v>
+      </c>
+      <c r="X4">
+        <v>20349.64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5">
+        <v>838</v>
+      </c>
+      <c r="C5">
+        <v>1020716254</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>4238600</v>
+      </c>
+      <c r="F5">
+        <v>7702001023523</v>
+      </c>
+      <c r="G5">
+        <v>2352</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>4140</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>6957.9831932773</v>
+      </c>
+      <c r="L5">
+        <v>8280</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5">
+        <v>1322.02</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5">
+        <v>127453</v>
+      </c>
+      <c r="V5">
+        <v>107103.36</v>
+      </c>
+      <c r="W5">
+        <v>0.19</v>
+      </c>
+      <c r="X5">
+        <v>20349.64</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6">
+        <v>838</v>
+      </c>
+      <c r="C6">
+        <v>1020716254</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>4238600</v>
+      </c>
+      <c r="F6">
+        <v>7702001133611</v>
+      </c>
+      <c r="G6">
+        <v>13361</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>2882</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>4843.6974789916</v>
+      </c>
+      <c r="L6">
+        <v>5764</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6">
+        <v>127453</v>
+      </c>
+      <c r="V6">
+        <v>107103.36</v>
+      </c>
+      <c r="W6">
+        <v>0.19</v>
+      </c>
+      <c r="X6">
+        <v>20349.64</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7">
+        <v>838</v>
+      </c>
+      <c r="C7">
+        <v>1020716254</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>4238600</v>
+      </c>
+      <c r="F7">
+        <v>7702001115518</v>
+      </c>
+      <c r="G7">
+        <v>11551</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>9936</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>16699.159663866</v>
+      </c>
+      <c r="L7">
+        <v>19872</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7">
+        <v>3172.84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7">
+        <v>127453</v>
+      </c>
+      <c r="V7">
+        <v>107103.36</v>
+      </c>
+      <c r="W7">
+        <v>0.19</v>
+      </c>
+      <c r="X7">
+        <v>20349.64</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8">
+        <v>838</v>
+      </c>
+      <c r="C8">
+        <v>1020716254</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>4238600</v>
+      </c>
+      <c r="F8">
+        <v>7702001045204</v>
+      </c>
+      <c r="G8">
+        <v>4520</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>940</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>5529.4117647059</v>
+      </c>
+      <c r="L8">
+        <v>6580</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8">
+        <v>127453</v>
+      </c>
+      <c r="V8">
+        <v>107103.36</v>
+      </c>
+      <c r="W8">
+        <v>0.19</v>
+      </c>
+      <c r="X8">
+        <v>20349.64</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9">
+        <v>838</v>
+      </c>
+      <c r="C9">
+        <v>1020716254</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>4238600</v>
+      </c>
+      <c r="F9">
+        <v>7702001122974</v>
+      </c>
+      <c r="G9">
+        <v>12297</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9">
+        <v>7360</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>6184.8739495798</v>
+      </c>
+      <c r="L9">
+        <v>7360</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9">
+        <v>1175.13</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9">
+        <v>127453</v>
+      </c>
+      <c r="V9">
+        <v>107103.36</v>
+      </c>
+      <c r="W9">
+        <v>0.19</v>
+      </c>
+      <c r="X9">
+        <v>20349.64</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10">
+        <v>838</v>
+      </c>
+      <c r="C10">
+        <v>1020716254</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>4238600</v>
+      </c>
+      <c r="F10">
+        <v>7702001054718</v>
+      </c>
+      <c r="G10">
+        <v>5471</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>3956</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3324.3697478992</v>
+      </c>
+      <c r="L10">
+        <v>3956</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10">
+        <v>631.63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10">
+        <v>127453</v>
+      </c>
+      <c r="V10">
+        <v>107103.36</v>
+      </c>
+      <c r="W10">
+        <v>0.19</v>
+      </c>
+      <c r="X10">
+        <v>20349.64</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11">
+        <v>838</v>
+      </c>
+      <c r="C11">
+        <v>1020716254</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>4238600</v>
+      </c>
+      <c r="F11">
+        <v>7702001011315</v>
+      </c>
+      <c r="G11">
+        <v>1131</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11">
+        <v>5060</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>4252.1008403361</v>
+      </c>
+      <c r="L11">
+        <v>5060</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11">
+        <v>127453</v>
+      </c>
+      <c r="V11">
+        <v>107103.36</v>
+      </c>
+      <c r="W11">
+        <v>0.19</v>
+      </c>
+      <c r="X11">
+        <v>20349.64</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
